--- a/pop_est.xlsx
+++ b/pop_est.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marytorres/Downloads/covid19-vuln/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marytorres/Documents/covid19-vuln/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0153C1-530A-D94C-974F-B3FCDD39952A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8106272-32CE-A44C-8B90-574670B97A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="23200" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="20">
   <si>
     <t>region</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>80+</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -450,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="141" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -480,7 +483,7 @@
         <v>34398</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -491,7 +494,7 @@
         <v>46996</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -502,7 +505,7 @@
         <v>53100</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -513,7 +516,7 @@
         <v>46012</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -524,7 +527,7 @@
         <v>50077</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -535,7 +538,7 @@
         <v>54276</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -546,7 +549,7 @@
         <v>49742</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -557,7 +560,7 @@
         <v>38932</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -568,246 +571,264 @@
         <v>21241</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>47982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>65644</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47982</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>76222</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65644</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>66675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76222</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>67120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>66675</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>73158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67120</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>64097</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>73158</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>56610</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>64097</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
       <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1">
+        <v>56610</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>47291</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>35100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1">
-        <v>28934</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="1">
-        <v>33168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35100</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>45137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28934</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1">
-        <v>70565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33168</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" s="1">
-        <v>71148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45137</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1">
-        <v>72395</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>70565</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C27" s="1">
-        <v>71188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71148</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>5</v>
       </c>
       <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>72395</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>71188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C30" s="1">
         <v>65786</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="1">
-        <v>12393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1">
-        <v>16188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C32" s="1">
-        <v>12900</v>
+        <v>10009</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -815,10 +836,10 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1">
-        <v>14949</v>
+        <v>12393</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -826,10 +847,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C34" s="1">
-        <v>15744</v>
+        <v>16188</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -837,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C35" s="1">
-        <v>13767</v>
+        <v>12900</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -848,10 +869,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1">
-        <v>12235</v>
+        <v>14949</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -859,54 +880,54 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" s="1">
-        <v>6661</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38" s="1">
-        <v>37368</v>
+        <v>13767</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
-        <v>55355</v>
+        <v>12235</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1">
-        <v>62337</v>
+        <v>6661</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C41" s="1">
-        <v>50207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -914,10 +935,10 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>56497</v>
+        <v>37368</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -925,10 +946,10 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>60947</v>
+        <v>55355</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -936,10 +957,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1">
-        <v>59637</v>
+        <v>62337</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -947,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
-        <v>49239</v>
+        <v>50207</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -958,65 +979,65 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>27900</v>
+        <v>56497</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1">
-        <v>56231</v>
+        <v>60947</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
-        <v>77951</v>
+        <v>59637</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
-        <v>93333</v>
+        <v>49239</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C50" s="1">
-        <v>79986</v>
+        <v>27900</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1">
-        <v>84578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1024,10 +1045,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C52" s="1">
-        <v>92430</v>
+        <v>56231</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1035,10 +1056,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C53" s="1">
-        <v>84994</v>
+        <v>77951</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1046,10 +1067,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C54" s="1">
-        <v>66482</v>
+        <v>93333</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1057,76 +1078,76 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C55" s="1">
-        <v>46069</v>
+        <v>79986</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C56" s="1">
-        <v>44018</v>
+        <v>84578</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C57" s="1">
-        <v>59476</v>
+        <v>92430</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C58" s="1">
-        <v>64267</v>
+        <v>84994</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C59" s="1">
-        <v>55126</v>
+        <v>66482</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C60" s="1">
-        <v>59247</v>
+        <v>46069</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C61" s="1">
-        <v>62249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1134,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>61040</v>
+        <v>44018</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1145,10 +1166,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C63" s="1">
-        <v>45115</v>
+        <v>59476</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1156,10 +1177,197 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1">
+        <v>64267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1">
+        <v>55126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="1">
+        <v>59247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1">
+        <v>62249</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="1">
+        <v>61040</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C70" s="1">
         <v>24065</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pop_est.xlsx
+++ b/pop_est.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marytorres/Documents/covid19-vuln/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8106272-32CE-A44C-8B90-574670B97A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE65926-4F7C-F84F-810C-2F7AF2CAB79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="460" windowWidth="18500" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="17">
   <si>
     <t>region</t>
   </si>
@@ -64,15 +64,6 @@
     <t>Ponce</t>
   </si>
   <si>
-    <t>0 to 9</t>
-  </si>
-  <si>
-    <t>10 to 19</t>
-  </si>
-  <si>
-    <t>20 to 29</t>
-  </si>
-  <si>
     <t>30 to 39</t>
   </si>
   <si>
@@ -91,7 +82,7 @@
     <t>80+</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>0 to 29</t>
   </si>
 </sst>
 </file>
@@ -453,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="141" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -477,10 +468,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
-        <v>34398</v>
+        <v>134494</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -488,10 +479,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
-        <v>46996</v>
+        <v>46012</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -499,10 +490,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>53100</v>
+        <v>50077</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -510,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>46012</v>
+        <v>54276</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -521,10 +512,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
-        <v>50077</v>
+        <v>49742</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -532,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
-        <v>54276</v>
+        <v>38932</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -543,43 +534,43 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>49742</v>
+        <v>21241</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
-        <v>38932</v>
+        <v>189848</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1">
-        <v>21241</v>
+        <v>66675</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>67120</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -588,11 +579,12 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>47982</v>
-      </c>
+        <v>73158</v>
+      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -600,11 +592,12 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1">
-        <v>65644</v>
-      </c>
+        <v>64097</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -612,11 +605,12 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>76222</v>
-      </c>
+        <v>56610</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -624,83 +618,90 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>66675</v>
-      </c>
+        <v>47291</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>67120</v>
-      </c>
+        <v>97202</v>
+      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>73158</v>
-      </c>
+        <v>45137</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C18" s="1">
-        <v>64097</v>
-      </c>
+        <v>70565</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>56610</v>
-      </c>
+        <v>71148</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1">
-        <v>47291</v>
-      </c>
+        <v>72395</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1">
-        <v>0</v>
-      </c>
+        <v>71188</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -708,667 +709,439 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C22" s="1">
-        <v>35100</v>
-      </c>
+        <v>65786</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
-        <v>28934</v>
-      </c>
+        <v>38590</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>33168</v>
-      </c>
+        <v>12900</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1">
-        <v>45137</v>
-      </c>
+        <v>14949</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="1">
-        <v>70565</v>
-      </c>
+        <v>15744</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
-        <v>71148</v>
-      </c>
+        <v>13767</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="1">
-        <v>72395</v>
-      </c>
+        <v>12235</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="1">
-        <v>71188</v>
-      </c>
+        <v>6661</v>
+      </c>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1">
-        <v>65786</v>
-      </c>
+        <v>155060</v>
+      </c>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1">
-        <v>0</v>
-      </c>
+        <v>50207</v>
+      </c>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="1">
+        <v>56497</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>60947</v>
+      </c>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>59637</v>
+      </c>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>49239</v>
+      </c>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="1">
+        <v>27900</v>
+      </c>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>227515</v>
+      </c>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
-        <v>10009</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C38" s="1">
+        <v>79986</v>
+      </c>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="1">
-        <v>12393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C39" s="1">
+        <v>84578</v>
+      </c>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="1">
-        <v>16188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C40" s="1">
+        <v>92430</v>
+      </c>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="1">
-        <v>12900</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C41" s="1">
+        <v>84994</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="1">
-        <v>14949</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C42" s="1">
+        <v>66482</v>
+      </c>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="1">
-        <v>15744</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C43" s="1">
+        <v>46069</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="1">
-        <v>13767</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1">
-        <v>12235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1">
-        <v>6661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>6</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C44" s="1">
+        <v>167761</v>
+      </c>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="1">
-        <v>37368</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="C45" s="1">
+        <v>55126</v>
+      </c>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="1">
-        <v>55355</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C46" s="1">
+        <v>59247</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="1">
-        <v>62337</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C47" s="1">
+        <v>62249</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="1">
-        <v>50207</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="C48" s="1">
+        <v>61040</v>
+      </c>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="1">
-        <v>56497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C49" s="1">
+        <v>45115</v>
+      </c>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="1">
-        <v>60947</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="1">
-        <v>59637</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1">
-        <v>49239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
       <c r="C50" s="1">
-        <v>27900</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
-        <v>56231</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="1">
-        <v>77951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="1">
-        <v>93333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1">
-        <v>79986</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>8</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="1">
-        <v>84578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="1">
-        <v>92430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>8</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="1">
-        <v>84994</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="1">
-        <v>66482</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="1">
-        <v>46069</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44018</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="1">
-        <v>59476</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="1">
-        <v>64267</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="1">
-        <v>55126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="1">
-        <v>59247</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="1">
-        <v>62249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1">
-        <v>61040</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="1">
-        <v>45115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="1">
         <v>24065</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>19</v>
-      </c>
-      <c r="B72" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>19</v>
-      </c>
-      <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>19</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>19</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
